--- a/car_spec.xlsx
+++ b/car_spec.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loclo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loclo\Desktop\E_Project\Group_4-T1.2111.M1_eProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -217,9 +217,6 @@
     <t>1242cc, 12.5:1 ratio</t>
   </si>
   <si>
-    <t>37L tank/ 4.8L/100Km</t>
-  </si>
-  <si>
     <t>Reversing Camera</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
     <t>5-speed manual or 4 speed automatic</t>
   </si>
   <si>
-    <t>37L tank/ 5.1L/100Km</t>
-  </si>
-  <si>
     <t>Keyless Start, Pollen Filter</t>
   </si>
   <si>
@@ -266,9 +260,6 @@
   </si>
   <si>
     <t>1373cc, 9.9:1 ratio</t>
-  </si>
-  <si>
-    <t>47L tank/ 5.9L/100Km</t>
   </si>
   <si>
     <t>N/A</t>
@@ -402,6 +393,15 @@
   </si>
   <si>
     <t>4-speed Automatic</t>
+  </si>
+  <si>
+    <t>47L tank, 5.9L/100Km</t>
+  </si>
+  <si>
+    <t>37L tank, 5.1L/100Km</t>
+  </si>
+  <si>
+    <t>37L tank, 4.8L/100Km</t>
   </si>
 </sst>
 </file>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -947,7 +947,7 @@
     </row>
     <row r="4" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>29</v>
@@ -962,40 +962,40 @@
         <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -1003,52 +1003,52 @@
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="O5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -1071,7 +1071,7 @@
         <v>46</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>59</v>
@@ -1124,25 +1124,25 @@
         <v>45</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>60</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>54</v>
@@ -1168,7 +1168,7 @@
         <v>41</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>41</v>
@@ -1177,37 +1177,37 @@
         <v>41</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>49</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>57</v>
       </c>
       <c r="R8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="S8" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="31.2" x14ac:dyDescent="0.3">
@@ -1221,7 +1221,7 @@
         <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>43</v>
@@ -1230,37 +1230,37 @@
         <v>43</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>62</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Q9" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="R9" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="198.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1298,22 +1298,22 @@
         <v>61</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1336,37 +1336,37 @@
         <v>32</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Q11" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="R11" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="147" customHeight="1" x14ac:dyDescent="0.3">
@@ -1389,37 +1389,37 @@
         <v>36</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="R12" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">

--- a/car_spec.xlsx
+++ b/car_spec.xlsx
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
